--- a/附件8.xlsx
+++ b/附件8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="24">
   <si>
     <t>Cell 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,13 @@
   <si>
     <t>In the case of miRNA-miRNA interaction similarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the case of miRNA synergistic module similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K562_HalfCell_02</t>
   </si>
 </sst>
 </file>
@@ -455,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -468,10 +475,13 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -480,8 +490,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -494,8 +508,14 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,8 +528,14 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,8 +548,14 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,8 +568,14 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,8 +588,14 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,8 +608,14 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,8 +628,14 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,8 +648,14 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -606,8 +668,14 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -620,8 +688,14 @@
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,8 +708,14 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,8 +728,14 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,8 +748,14 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,8 +768,14 @@
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,8 +788,14 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,8 +808,14 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,8 +828,14 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,8 +848,14 @@
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,8 +868,14 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,8 +888,14 @@
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -774,8 +908,14 @@
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -788,8 +928,14 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +948,14 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,8 +968,14 @@
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +988,14 @@
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,8 +1008,14 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +1028,14 @@
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,8 +1048,14 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,8 +1068,14 @@
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -900,8 +1088,14 @@
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +1108,14 @@
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,8 +1128,14 @@
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,8 +1148,14 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +1168,14 @@
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1188,14 @@
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,8 +1208,14 @@
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,8 +1228,14 @@
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,8 +1248,14 @@
       <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,8 +1268,14 @@
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,8 +1288,14 @@
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,8 +1308,14 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,8 +1328,14 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1082,8 +1348,14 @@
       <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,8 +1368,14 @@
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -1110,8 +1388,14 @@
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1124,8 +1408,14 @@
       <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,8 +1428,14 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -1152,8 +1448,14 @@
       <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -1166,8 +1468,14 @@
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,8 +1488,14 @@
       <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,8 +1508,14 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -1208,8 +1528,14 @@
       <c r="E53" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -1222,8 +1548,14 @@
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -1236,8 +1568,14 @@
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -1250,8 +1588,14 @@
       <c r="E56" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -1264,8 +1608,14 @@
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1628,14 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -1292,8 +1648,14 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1668,14 @@
       <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,8 +1688,14 @@
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -1334,8 +1708,14 @@
       <c r="E62" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -1348,8 +1728,14 @@
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -1362,8 +1748,14 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1376,8 +1768,14 @@
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1390,8 +1788,14 @@
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1404,8 +1808,14 @@
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -1418,8 +1828,14 @@
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -1432,8 +1848,14 @@
       <c r="E69" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,8 +1868,14 @@
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -1460,8 +1888,14 @@
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -1474,8 +1908,14 @@
       <c r="E72" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -1488,8 +1928,14 @@
       <c r="E73" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -1502,8 +1948,14 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -1516,8 +1968,14 @@
       <c r="E75" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -1530,8 +1988,14 @@
       <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -1544,8 +2008,14 @@
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -1558,8 +2028,14 @@
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -1572,75 +2048,130 @@
       <c r="E79" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="G80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="G84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
